--- a/apps/load_data/2023/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/03/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0323\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0323\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD24A3E-333F-4ADF-91D5-9F747EFDA385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E29248D-1F86-42A1-A1BB-59DE6B2CD5A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$284</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$284</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12078" uniqueCount="3319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12058" uniqueCount="3316">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6832,9 +6833,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7996,9 +7994,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8279,9 +8274,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9985,7 +9977,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10825,10 +10817,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD171" sqref="AC171:AD242"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42545,12 +42539,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42603,16 +42592,16 @@
         <v>23</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2272</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>117</v>
@@ -42627,13 +42616,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>121</v>
@@ -42654,19 +42643,19 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>129</v>
@@ -42704,16 +42693,16 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42745,12 +42734,7 @@
       <c r="AB172" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42797,7 +42781,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BB172" s="1">
         <v>3</v>
@@ -42806,16 +42790,16 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="BN172" s="1" t="s">
         <v>117</v>
@@ -42827,13 +42811,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -42857,19 +42841,19 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="CH172" s="1" t="s">
+      <c r="CI172" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="CI172" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="CJ172" s="1" t="s">
         <v>129</v>
@@ -42901,16 +42885,16 @@
         <v>95</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -42933,12 +42917,7 @@
       <c r="AB173" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -42985,7 +42964,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -42994,7 +42973,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -43021,7 +43000,7 @@
         <v>111</v>
       </c>
       <c r="CA173" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="CB173" s="1" t="s">
         <v>123</v>
@@ -43030,10 +43009,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43074,13 +43053,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43109,12 +43088,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43164,7 +43138,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BB174" s="1">
         <v>3</v>
@@ -43173,13 +43147,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>117</v>
@@ -43188,7 +43162,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43206,16 +43180,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>129</v>
@@ -43256,13 +43230,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43294,12 +43268,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43349,7 +43318,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB175" s="1">
         <v>3</v>
@@ -43358,13 +43327,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>117</v>
@@ -43373,7 +43342,7 @@
         <v>106</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43394,13 +43363,13 @@
         <v>675</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>129</v>
@@ -43441,13 +43410,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2322</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43476,12 +43445,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43531,7 +43495,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BB176" s="1">
         <v>3</v>
@@ -43540,13 +43504,13 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1013</v>
@@ -43558,7 +43522,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43576,16 +43540,16 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2327</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>1019</v>
@@ -43626,13 +43590,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43670,12 +43634,7 @@
       <c r="AB177" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -43722,7 +43681,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BB177" s="1">
         <v>3</v>
@@ -43731,13 +43690,13 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>417</v>
@@ -43752,13 +43711,13 @@
         <v>118</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -43776,16 +43735,16 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>424</v>
@@ -43826,13 +43785,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2344</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -43861,12 +43820,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -43916,7 +43870,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BB178" s="1">
         <v>3</v>
@@ -43925,13 +43879,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>1146</v>
@@ -43943,7 +43897,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -43961,16 +43915,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>1152</v>
@@ -44011,13 +43965,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44046,12 +44000,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44101,7 +44050,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB179" s="1">
         <v>3</v>
@@ -44110,13 +44059,13 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>1013</v>
@@ -44131,7 +44080,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44149,16 +44098,16 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>1019</v>
@@ -44193,19 +44142,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44240,12 +44189,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -44295,7 +44239,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BB180" s="1">
         <v>3</v>
@@ -44304,13 +44248,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>117</v>
@@ -44319,7 +44263,7 @@
         <v>106</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44331,7 +44275,7 @@
         <v>111</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>123</v>
@@ -44340,16 +44284,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>129</v>
@@ -44390,13 +44334,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2379</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44425,12 +44369,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -44477,7 +44416,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BB181" s="1">
         <v>3</v>
@@ -44486,16 +44425,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2383</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>117</v>
@@ -44507,13 +44446,13 @@
         <v>118</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44531,19 +44470,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1791</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>129</v>
@@ -44581,13 +44520,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44668,7 +44607,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BB182" s="1">
         <v>3</v>
@@ -44677,13 +44616,13 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>117</v>
@@ -44695,7 +44634,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -44713,16 +44652,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>129</v>
@@ -44763,13 +44702,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2401</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2402</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -44844,7 +44783,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BB183" s="1">
         <v>3</v>
@@ -44853,16 +44792,16 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="BN183" s="1" t="s">
         <v>117</v>
@@ -44874,13 +44813,13 @@
         <v>229</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -44898,19 +44837,19 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="CH183" s="1" t="s">
+      <c r="CI183" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="CI183" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="CJ183" s="1" t="s">
         <v>129</v>
@@ -44948,13 +44887,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45029,7 +44968,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BB184" s="1">
         <v>3</v>
@@ -45038,16 +44977,16 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -45059,13 +44998,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -45083,19 +45022,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>129</v>
@@ -45133,13 +45072,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45217,7 +45156,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BB185" s="1">
         <v>3</v>
@@ -45226,13 +45165,13 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>117</v>
@@ -45241,7 +45180,7 @@
         <v>106</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45259,16 +45198,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>869</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>129</v>
@@ -45309,13 +45248,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45351,10 +45290,10 @@
         <v>107</v>
       </c>
       <c r="AG186" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH186" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="AH186" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="AI186" s="1" t="s">
         <v>102</v>
@@ -45396,7 +45335,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BB186" s="1">
         <v>3</v>
@@ -45405,13 +45344,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>117</v>
@@ -45420,7 +45359,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45441,13 +45380,13 @@
         <v>1580</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>129</v>
@@ -45488,13 +45427,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45572,7 +45511,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BB187" s="1">
         <v>3</v>
@@ -45581,16 +45520,16 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>117</v>
@@ -45602,13 +45541,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -45632,13 +45571,13 @@
         <v>952</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>129</v>
@@ -45676,13 +45615,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45760,7 +45699,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BB188" s="1">
         <v>3</v>
@@ -45769,13 +45708,13 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>584</v>
@@ -45787,7 +45726,7 @@
         <v>106</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -45805,16 +45744,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>591</v>
@@ -45855,13 +45794,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -45900,7 +45839,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>107</v>
@@ -45954,16 +45893,16 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -45975,13 +45914,13 @@
         <v>229</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -46002,7 +45941,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>301</v>
@@ -46011,10 +45950,10 @@
         <v>1612</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>129</v>
@@ -46052,13 +45991,13 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46142,13 +46081,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>377</v>
@@ -46163,13 +46102,13 @@
         <v>118</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>121</v>
@@ -46193,10 +46132,10 @@
         <v>660</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>384</v>
@@ -46237,13 +46176,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46327,13 +46266,13 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>117</v>
@@ -46342,7 +46281,7 @@
         <v>106</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46360,16 +46299,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>129</v>
@@ -46410,13 +46349,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46503,13 +46442,13 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1013</v>
@@ -46524,7 +46463,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46542,16 +46481,16 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>1019</v>
@@ -46592,13 +46531,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2515</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2516</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46679,16 +46618,16 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>117</v>
@@ -46700,13 +46639,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -46727,16 +46666,16 @@
         <v>506</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>129</v>
@@ -46774,13 +46713,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -46864,16 +46803,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>117</v>
@@ -46885,13 +46824,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -46912,16 +46851,16 @@
         <v>952</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>129</v>
@@ -46959,13 +46898,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47049,13 +46988,13 @@
         <v>23</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>377</v>
@@ -47070,13 +47009,13 @@
         <v>118</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>121</v>
@@ -47094,16 +47033,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>384</v>
@@ -47144,13 +47083,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47231,16 +47170,16 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2552</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2553</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>117</v>
@@ -47252,13 +47191,13 @@
         <v>118</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>121</v>
@@ -47276,19 +47215,19 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>129</v>
@@ -47320,16 +47259,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47407,7 +47346,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>117</v>
@@ -47422,7 +47361,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>123</v>
@@ -47431,7 +47370,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>129</v>
@@ -47475,13 +47414,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47559,7 +47498,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BB198" s="1">
         <v>3</v>
@@ -47568,7 +47507,7 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
@@ -47583,7 +47522,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47601,13 +47540,13 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="CF198" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>1030</v>
@@ -47651,13 +47590,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2576</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47735,7 +47674,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BB199" s="1">
         <v>3</v>
@@ -47744,13 +47683,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1906</v>
@@ -47762,7 +47701,7 @@
         <v>106</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -47780,16 +47719,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1912</v>
@@ -47830,13 +47769,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -47914,7 +47853,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BB200" s="1">
         <v>3</v>
@@ -47923,7 +47862,7 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
@@ -47938,7 +47877,7 @@
         <v>106</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -47959,10 +47898,10 @@
         <v>1112</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="CF200" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>1030</v>
@@ -48006,13 +47945,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48090,7 +48029,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BB201" s="1">
         <v>3</v>
@@ -48099,13 +48038,13 @@
         <v>23</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1832</v>
@@ -48123,13 +48062,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>121</v>
@@ -48147,16 +48086,16 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1836</v>
@@ -48197,13 +48136,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48287,16 +48226,16 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2608</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>117</v>
@@ -48308,13 +48247,13 @@
         <v>229</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>121</v>
@@ -48332,19 +48271,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>129</v>
@@ -48382,10 +48321,10 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48412,10 +48351,10 @@
         <v>107</v>
       </c>
       <c r="AG203" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH203" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="AH203" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="AJ203" s="1" t="s">
         <v>110</v>
@@ -48457,7 +48396,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48466,7 +48405,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>117</v>
@@ -48493,7 +48432,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1826</v>
@@ -48537,13 +48476,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48618,7 +48557,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BB204" s="1">
         <v>3</v>
@@ -48627,13 +48566,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>737</v>
@@ -48648,13 +48587,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -48672,16 +48611,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2631</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2632</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>743</v>
@@ -48722,13 +48661,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -48806,7 +48745,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BB205" s="1">
         <v>3</v>
@@ -48815,13 +48754,13 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2235</v>
@@ -48833,7 +48772,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -48851,16 +48790,16 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>2240</v>
@@ -48901,13 +48840,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -48994,13 +48933,13 @@
         <v>23</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>117</v>
@@ -49009,7 +48948,7 @@
         <v>106</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>121</v>
@@ -49027,16 +48966,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>129</v>
@@ -49077,16 +49016,16 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49124,12 +49063,7 @@
       <c r="AB207" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -49179,7 +49113,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="BB207" s="1">
         <v>3</v>
@@ -49188,13 +49122,13 @@
         <v>23</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>117</v>
@@ -49203,7 +49137,7 @@
         <v>106</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>121</v>
@@ -49227,10 +49161,10 @@
         <v>1162</v>
       </c>
       <c r="CE207" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="CF207" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>2067</v>
@@ -49256,7 +49190,7 @@
         <v>1423</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49268,16 +49202,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49301,7 +49235,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>373</v>
@@ -49346,7 +49280,7 @@
         <v>0</v>
       </c>
       <c r="CA208" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="CB208" s="1" t="s">
         <v>123</v>
@@ -49355,10 +49289,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49375,7 +49309,7 @@
         <v>1423</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49387,16 +49321,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49423,7 +49357,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>373</v>
@@ -49468,7 +49402,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>123</v>
@@ -49477,10 +49411,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49515,10 +49449,10 @@
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49542,7 +49476,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>373</v>
@@ -49596,10 +49530,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49616,7 +49550,7 @@
         <v>185</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49628,16 +49562,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -49706,7 +49640,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>123</v>
@@ -49715,10 +49649,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -49735,7 +49669,7 @@
         <v>1423</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -49747,16 +49681,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -49825,7 +49759,7 @@
         <v>0</v>
       </c>
       <c r="CA212" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="CB212" s="1" t="s">
         <v>123</v>
@@ -49834,10 +49768,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -49854,7 +49788,7 @@
         <v>185</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -49866,16 +49800,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -49944,7 +49878,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>123</v>
@@ -49953,10 +49887,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -49991,10 +49925,10 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50072,10 +50006,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50110,13 +50044,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2690</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50145,12 +50079,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -50203,13 +50132,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>377</v>
@@ -50224,13 +50153,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>121</v>
@@ -50248,16 +50177,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>384</v>
@@ -50298,13 +50227,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2701</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50333,12 +50262,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50394,13 +50318,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>117</v>
@@ -50409,7 +50333,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>121</v>
@@ -50427,16 +50351,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>129</v>
@@ -50477,13 +50401,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50515,12 +50439,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50573,13 +50492,13 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1906</v>
@@ -50594,13 +50513,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -50618,16 +50537,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>1912</v>
@@ -50668,13 +50587,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -50703,12 +50622,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -50764,13 +50678,13 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>584</v>
@@ -50782,7 +50696,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -50800,16 +50714,16 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2727</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>591</v>
@@ -50850,13 +50764,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -50885,12 +50799,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -50943,13 +50852,13 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1072</v>
@@ -50964,13 +50873,13 @@
         <v>229</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -50991,13 +50900,13 @@
         <v>753</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="CF219" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>1078</v>
@@ -51038,13 +50947,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2739</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2740</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51073,12 +50982,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -51134,13 +51038,13 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>117</v>
@@ -51149,7 +51053,7 @@
         <v>106</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>121</v>
@@ -51167,16 +51071,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2746</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2747</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>129</v>
@@ -51217,13 +51121,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2750</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51252,12 +51156,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2752</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -51304,7 +51203,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="BB221" s="1">
         <v>3</v>
@@ -51313,16 +51212,16 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51334,13 +51233,13 @@
         <v>229</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>121</v>
@@ -51358,19 +51257,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>129</v>
@@ -51408,13 +51307,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51450,7 +51349,7 @@
         <v>107</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2125</v>
@@ -51501,7 +51400,7 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
@@ -51510,7 +51409,7 @@
         <v>117</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51528,13 +51427,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>129</v>
@@ -51578,13 +51477,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51671,13 +51570,13 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
@@ -51686,7 +51585,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -51707,13 +51606,13 @@
         <v>334</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>129</v>
@@ -51754,13 +51653,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -51844,13 +51743,13 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>447</v>
@@ -51865,13 +51764,13 @@
         <v>229</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -51889,16 +51788,16 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>454</v>
@@ -51939,13 +51838,13 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52035,13 +51934,13 @@
         <v>23</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -52050,7 +51949,7 @@
         <v>106</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>121</v>
@@ -52080,10 +51979,10 @@
         <v>1222</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CI225" s="1" t="s">
         <v>129</v>
@@ -52124,13 +52023,13 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52217,13 +52116,13 @@
         <v>23</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52238,13 +52137,13 @@
         <v>160</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="BT226" s="3">
         <v>5347</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>121</v>
@@ -52268,16 +52167,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="CE226" s="1" t="s">
         <v>450</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>129</v>
@@ -52318,10 +52217,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -52399,7 +52298,7 @@
         <v>22</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52429,7 +52328,7 @@
         <v>102</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>129</v>
@@ -52473,10 +52372,10 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
@@ -52506,10 +52405,10 @@
         <v>107</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="AH228" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AJ228" s="1" t="s">
         <v>110</v>
@@ -52557,7 +52456,7 @@
         <v>21</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>117</v>
@@ -52587,7 +52486,7 @@
         <v>93</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -52631,10 +52530,10 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
@@ -52664,10 +52563,10 @@
         <v>107</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AJ229" s="1" t="s">
         <v>110</v>
@@ -52715,7 +52614,7 @@
         <v>21</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>117</v>
@@ -52742,7 +52641,7 @@
         <v>93</v>
       </c>
       <c r="CD229" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -52786,13 +52685,13 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
@@ -52882,7 +52781,7 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>114</v>
@@ -52891,7 +52790,7 @@
         <v>117</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -52912,13 +52811,13 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -52962,13 +52861,13 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -53055,13 +52954,13 @@
         <v>23</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -53073,13 +52972,13 @@
         <v>118</v>
       </c>
       <c r="BS231" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="BT231" s="3">
         <v>35278</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>121</v>
@@ -53100,16 +52999,16 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="CE231" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="CF231" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="CH231" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2834</v>
-      </c>
-      <c r="CF231" s="1" t="s">
-        <v>2835</v>
-      </c>
-      <c r="CH231" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>129</v>
@@ -53150,13 +53049,13 @@
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -53246,19 +53145,19 @@
         <v>23</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="BG232" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>121</v>
@@ -53279,16 +53178,16 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>451</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>129</v>
@@ -53329,10 +53228,10 @@
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>101</v>
@@ -53362,10 +53261,10 @@
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="AH233" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AJ233" s="1" t="s">
         <v>110</v>
@@ -53410,7 +53309,7 @@
         <v>22</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>117</v>
@@ -53437,7 +53336,7 @@
         <v>93</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>129</v>
@@ -53481,13 +53380,13 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53571,13 +53470,13 @@
         <v>23</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="BG234" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1724</v>
@@ -53589,13 +53488,13 @@
         <v>103</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BT234" s="3">
         <v>300</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>121</v>
@@ -53616,16 +53515,16 @@
         <v>102</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>1731</v>
@@ -53648,7 +53547,7 @@
         <v>185</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>93</v>
@@ -53660,22 +53559,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="N235" s="1" t="s">
         <v>2862</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="M235" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="Q235" s="3">
         <v>17060</v>
@@ -53708,13 +53607,13 @@
         <v>42628</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>136</v>
@@ -53759,22 +53658,22 @@
         <v>102</v>
       </c>
       <c r="AZ235" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="BB235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="BH235" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2868</v>
-      </c>
-      <c r="BB235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD235" s="1" t="s">
-        <v>2869</v>
-      </c>
-      <c r="BH235" s="1" t="s">
-        <v>2870</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2871</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -53783,7 +53682,7 @@
         <v>106</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -53807,13 +53706,13 @@
         <v>125</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CI235" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="CJ235" s="1" t="s">
         <v>129</v>
@@ -53827,13 +53726,13 @@
         <v>89</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>102</v>
@@ -53845,22 +53744,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="Q236" s="3">
         <v>26864</v>
@@ -53893,7 +53792,7 @@
         <v>42735</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -53947,10 +53846,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -53962,13 +53861,13 @@
         <v>229</v>
       </c>
       <c r="BS236" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="BT236" s="3">
         <v>102</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -53980,7 +53879,7 @@
         <v>111</v>
       </c>
       <c r="CA236" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="CB236" s="1" t="s">
         <v>123</v>
@@ -53989,16 +53888,16 @@
         <v>102</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>129</v>
@@ -54039,16 +53938,16 @@
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="Q237" s="3">
         <v>25379</v>
@@ -54078,7 +53977,7 @@
         <v>39800</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>243</v>
@@ -54132,10 +54031,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54147,13 +54046,13 @@
         <v>1630</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="BT237" s="3">
         <v>35915</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54183,10 +54082,10 @@
         <v>638</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>129</v>
@@ -54209,7 +54108,7 @@
         <v>91</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>102</v>
@@ -54221,22 +54120,22 @@
         <v>95</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="Q238" s="3">
         <v>17470</v>
@@ -54266,7 +54165,7 @@
         <v>43100</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>107</v>
@@ -54323,10 +54222,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
@@ -54335,7 +54234,7 @@
         <v>106</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54359,16 +54258,16 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CF238" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>129</v>
@@ -54391,7 +54290,7 @@
         <v>91</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>102</v>
@@ -54403,22 +54302,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="Q239" s="3">
         <v>23356</v>
@@ -54445,7 +54344,7 @@
         <v>43105</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
@@ -54499,10 +54398,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -54514,13 +54413,13 @@
         <v>103</v>
       </c>
       <c r="BS239" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="BT239" s="3">
         <v>34412</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -54529,7 +54428,7 @@
         <v>0</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>123</v>
@@ -54538,16 +54437,16 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="CF239" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="CH239" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="CF239" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="CH239" s="1" t="s">
-        <v>2924</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>129</v>
@@ -54570,7 +54469,7 @@
         <v>1423</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>93</v>
@@ -54582,22 +54481,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="Q240" s="3">
         <v>17726</v>
@@ -54633,7 +54532,7 @@
         <v>43312</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>243</v>
@@ -54684,7 +54583,7 @@
         <v>102</v>
       </c>
       <c r="AZ240" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BB240" s="1">
         <v>0</v>
@@ -54693,10 +54592,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -54705,7 +54604,7 @@
         <v>106</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -54714,7 +54613,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>123</v>
@@ -54723,16 +54622,16 @@
         <v>102</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="CF240" s="1" t="s">
         <v>893</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -54755,7 +54654,7 @@
         <v>1423</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>93</v>
@@ -54767,22 +54666,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="Q241" s="3">
         <v>17041</v>
@@ -54812,13 +54711,13 @@
         <v>42735</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="AH241" s="1" t="s">
         <v>2125</v>
@@ -54869,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -54878,7 +54777,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -54890,7 +54789,7 @@
         <v>111</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>123</v>
@@ -54899,13 +54798,13 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>129</v>
@@ -54931,7 +54830,7 @@
         <v>1423</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>102</v>
@@ -54943,22 +54842,22 @@
         <v>95</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="Q242" s="3">
         <v>30147</v>
@@ -54984,17 +54883,12 @@
       <c r="AA242" s="1">
         <v>0</v>
       </c>
-      <c r="AC242" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD242" s="1" t="s">
-        <v>2657</v>
-      </c>
+      <c r="AC242" s="3"/>
       <c r="AF242" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG242" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="AH242" s="1" t="s">
         <v>373</v>
@@ -55042,10 +54936,10 @@
         <v>0</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -55057,13 +54951,13 @@
         <v>103</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BT242" s="3">
         <v>37124</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -55072,7 +54966,7 @@
         <v>0</v>
       </c>
       <c r="CA242" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CB242" s="1" t="s">
         <v>123</v>
@@ -55081,16 +54975,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>129</v>
@@ -55113,7 +55007,7 @@
         <v>91</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>102</v>
@@ -55125,22 +55019,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="Q243" s="3">
         <v>17821</v>
@@ -55176,7 +55070,7 @@
         <v>43388</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
@@ -55227,25 +55121,25 @@
         <v>102</v>
       </c>
       <c r="AZ243" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="BB243" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC243" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD243" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="BE243" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="BF243" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="BB243" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC243" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD243" s="1" t="s">
+      <c r="BH243" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="BE243" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="BF243" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="BH243" s="1" t="s">
-        <v>2965</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
@@ -55254,7 +55148,7 @@
         <v>106</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55263,7 +55157,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55272,16 +55166,16 @@
         <v>102</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CF243" s="1" t="s">
         <v>492</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>129</v>
@@ -55322,16 +55216,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55364,7 +55258,7 @@
         <v>43980</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
@@ -55418,10 +55312,10 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55433,13 +55327,13 @@
         <v>1630</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="BT244" s="3">
         <v>35915</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55463,7 +55357,7 @@
         <v>638</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>1826</v>
@@ -55501,22 +55395,22 @@
         <v>95</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55552,7 +55446,7 @@
         <v>44135</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -55609,10 +55503,10 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
@@ -55621,7 +55515,7 @@
         <v>106</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -55630,7 +55524,7 @@
         <v>0</v>
       </c>
       <c r="CA245" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="CB245" s="1" t="s">
         <v>123</v>
@@ -55642,10 +55536,10 @@
         <v>1254</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>1826</v>
@@ -55689,16 +55583,16 @@
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -55731,16 +55625,16 @@
         <v>43847</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG246" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH246" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="AH246" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="AJ246" s="1" t="s">
         <v>110</v>
@@ -55782,7 +55676,7 @@
         <v>102</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BB246" s="1">
         <v>2</v>
@@ -55791,10 +55685,10 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -55806,13 +55700,13 @@
         <v>118</v>
       </c>
       <c r="BS246" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="BT246" s="3">
         <v>34808</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -55830,13 +55724,13 @@
         <v>102</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>1826</v>
@@ -55853,10 +55747,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1229</v>
@@ -55880,16 +55774,16 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -55943,7 +55837,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -55973,7 +55867,7 @@
         <v>102</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BB247" s="1">
         <v>2</v>
@@ -55982,13 +55876,13 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -56006,13 +55900,13 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -56056,16 +55950,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56104,7 +55998,7 @@
         <v>44246</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
@@ -56161,10 +56055,10 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
@@ -56173,7 +56067,7 @@
         <v>106</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56197,13 +56091,13 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CE248" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CF248" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56247,16 +56141,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56292,7 +56186,7 @@
         <v>44267</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56349,10 +56243,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56364,13 +56258,13 @@
         <v>118</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BT249" s="3">
         <v>35711</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56394,7 +56288,7 @@
         <v>381</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56438,16 +56332,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56483,16 +56377,16 @@
         <v>44255</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="AH250" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AJ250" s="1" t="s">
         <v>110</v>
@@ -56540,16 +56434,16 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BE250" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BF250" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
@@ -56558,13 +56452,13 @@
         <v>229</v>
       </c>
       <c r="BS250" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BT250" s="3">
         <v>2302</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -56588,13 +56482,13 @@
         <v>93</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>1802</v>
@@ -56638,16 +56532,16 @@
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56683,7 +56577,7 @@
         <v>44316</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
@@ -56740,10 +56634,10 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -56755,13 +56649,13 @@
         <v>229</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BT251" s="3">
         <v>35108</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -56779,16 +56673,16 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CE251" s="1" t="s">
         <v>1921</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>129</v>
@@ -56829,16 +56723,16 @@
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -56874,16 +56768,16 @@
         <v>44507</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG252" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="AH252" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AI252" s="1" t="s">
         <v>102</v>
@@ -56934,16 +56828,16 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -56967,13 +56861,13 @@
         <v>93</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>1802</v>
@@ -57011,22 +56905,22 @@
         <v>95</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57059,7 +56953,7 @@
         <v>44701</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
@@ -57107,7 +57001,7 @@
         <v>102</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB253" s="1">
         <v>5</v>
@@ -57116,13 +57010,13 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BI253" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
@@ -57137,13 +57031,13 @@
         <v>160</v>
       </c>
       <c r="BS253" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BT253" s="3">
         <v>36825</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57158,7 +57052,7 @@
         <v>111</v>
       </c>
       <c r="CA253" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="CB253" s="1" t="s">
         <v>123</v>
@@ -57167,19 +57061,19 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CI253" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CJ253" s="1" t="s">
         <v>129</v>
@@ -57211,22 +57105,22 @@
         <v>95</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57259,7 +57153,7 @@
         <v>44733</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -57316,10 +57210,10 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57331,13 +57225,13 @@
         <v>229</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BT254" s="3">
         <v>34412</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57358,13 +57252,13 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>2265</v>
@@ -57402,22 +57296,22 @@
         <v>95</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57450,7 +57344,7 @@
         <v>44561</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
@@ -57507,7 +57401,7 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
@@ -57516,13 +57410,13 @@
         <v>229</v>
       </c>
       <c r="BS255" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BT255" s="3">
         <v>5480</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -57549,10 +57443,10 @@
         <v>463</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>129</v>
@@ -57596,16 +57490,16 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57641,7 +57535,7 @@
         <v>44788</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
@@ -57701,10 +57595,10 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>117</v>
@@ -57719,13 +57613,13 @@
         <v>160</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BT256" s="3">
         <v>35259</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -57743,13 +57637,13 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57793,16 +57687,16 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57835,16 +57729,16 @@
         <v>44833</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG257" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="AH257" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AI257" s="1" t="s">
         <v>102</v>
@@ -57895,16 +57789,16 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -57916,7 +57810,7 @@
         <v>111</v>
       </c>
       <c r="CA257" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CB257" s="1" t="s">
         <v>123</v>
@@ -57925,13 +57819,13 @@
         <v>93</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>1802</v>
@@ -57975,16 +57869,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58020,16 +57914,16 @@
         <v>44895</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG258" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="AH258" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="AJ258" s="1" t="s">
         <v>110</v>
@@ -58074,10 +57968,10 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>117</v>
@@ -58086,13 +57980,13 @@
         <v>118</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BT258" s="3">
         <v>34170</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -58113,13 +58007,13 @@
         <v>93</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>1802</v>
@@ -58163,13 +58057,13 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58256,13 +58150,13 @@
         <v>23</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>117</v>
@@ -58271,7 +58165,7 @@
         <v>106</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58292,16 +58186,16 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="CF259" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="CH259" s="1" t="s">
         <v>3105</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3106</v>
-      </c>
-      <c r="CF259" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="CH259" s="1" t="s">
-        <v>3108</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>129</v>
@@ -58315,10 +58209,10 @@
         <v>88</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1229</v>
@@ -58333,7 +58227,7 @@
         <v>94</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1229</v>
@@ -58342,13 +58236,13 @@
         <v>92</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58402,7 +58296,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -58435,19 +58329,19 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>121</v>
@@ -58465,16 +58359,16 @@
         <v>102</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>312</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>129</v>
@@ -58488,10 +58382,10 @@
         <v>88</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1229</v>
@@ -58506,7 +58400,7 @@
         <v>94</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1229</v>
@@ -58515,13 +58409,13 @@
         <v>92</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58572,7 +58466,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -58608,19 +58502,19 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -58647,10 +58541,10 @@
         <v>1063</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>129</v>
@@ -58664,10 +58558,10 @@
         <v>88</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1229</v>
@@ -58682,7 +58576,7 @@
         <v>94</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1229</v>
@@ -58691,13 +58585,13 @@
         <v>92</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58748,7 +58642,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -58784,19 +58678,19 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -58817,16 +58711,16 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="CF262" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="CH262" s="1" t="s">
         <v>3136</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="CF262" s="1" t="s">
-        <v>3138</v>
-      </c>
-      <c r="CH262" s="1" t="s">
-        <v>3139</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>129</v>
@@ -58840,10 +58734,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1229</v>
@@ -58858,7 +58752,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1229</v>
@@ -58867,13 +58761,13 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58960,19 +58854,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -58993,7 +58887,7 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="CE263" s="1" t="s">
         <v>588</v>
@@ -59002,7 +58896,7 @@
         <v>492</v>
       </c>
       <c r="CH263" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>129</v>
@@ -59016,10 +58910,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1229</v>
@@ -59034,7 +58928,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1229</v>
@@ -59043,13 +58937,13 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59103,7 +58997,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="AO264" s="1">
         <v>0</v>
@@ -59139,19 +59033,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59175,13 +59069,13 @@
         <v>476</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59195,10 +59089,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1229</v>
@@ -59213,7 +59107,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1229</v>
@@ -59222,13 +59116,13 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59315,19 +59209,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59348,16 +59242,16 @@
         <v>102</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>599</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59371,10 +59265,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1229</v>
@@ -59389,7 +59283,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1229</v>
@@ -59398,13 +59292,13 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59458,7 +59352,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -59494,19 +59388,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -59527,16 +59421,16 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>991</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>129</v>
@@ -59550,10 +59444,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1229</v>
@@ -59568,7 +59462,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1229</v>
@@ -59577,13 +59471,13 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59637,7 +59531,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59673,19 +59567,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -59709,13 +59603,13 @@
         <v>977</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>129</v>
@@ -59729,10 +59623,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1229</v>
@@ -59747,7 +59641,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1229</v>
@@ -59756,10 +59650,10 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59801,7 +59695,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59837,7 +59731,7 @@
         <v>21</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
@@ -59861,7 +59755,7 @@
         <v>102</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>129</v>
@@ -59878,10 +59772,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1229</v>
@@ -59896,7 +59790,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1229</v>
@@ -59905,13 +59799,13 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="L269" s="1" t="s">
         <v>2212</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -59962,7 +59856,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -59995,19 +59889,19 @@
         <v>23</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>121</v>
@@ -60025,16 +59919,16 @@
         <v>102</v>
       </c>
       <c r="CD269" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="CE269" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="CF269" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="CH269" s="1" t="s">
         <v>3195</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>3196</v>
-      </c>
-      <c r="CF269" s="1" t="s">
-        <v>3197</v>
-      </c>
-      <c r="CH269" s="1" t="s">
-        <v>3198</v>
       </c>
       <c r="CI269" s="1" t="s">
         <v>129</v>
@@ -60048,10 +59942,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1229</v>
@@ -60066,7 +59960,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1229</v>
@@ -60075,13 +59969,13 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60165,19 +60059,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60198,16 +60092,16 @@
         <v>2148</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3204</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3205</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3207</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60221,10 +60115,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1229</v>
@@ -60239,7 +60133,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1229</v>
@@ -60248,13 +60142,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60308,7 +60202,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60344,19 +60238,19 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>121</v>
@@ -60377,16 +60271,16 @@
         <v>102</v>
       </c>
       <c r="CD271" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>129</v>
@@ -60400,10 +60294,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1229</v>
@@ -60418,7 +60312,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1229</v>
@@ -60427,10 +60321,10 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60472,7 +60366,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60508,7 +60402,7 @@
         <v>22</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
@@ -60532,7 +60426,7 @@
         <v>102</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>129</v>
@@ -60549,10 +60443,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1229</v>
@@ -60567,7 +60461,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1229</v>
@@ -60576,10 +60470,10 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60621,7 +60515,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60657,7 +60551,7 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
@@ -60681,7 +60575,7 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>129</v>
@@ -60698,10 +60592,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1229</v>
@@ -60716,7 +60610,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1229</v>
@@ -60725,13 +60619,13 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -60824,7 +60718,7 @@
         <v>23</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>114</v>
@@ -60851,10 +60745,10 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CF274" s="1" t="s">
         <v>216</v>
@@ -60874,10 +60768,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1229</v>
@@ -60892,7 +60786,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1229</v>
@@ -60901,10 +60795,10 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -60946,7 +60840,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -60982,7 +60876,7 @@
         <v>22</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>117</v>
@@ -60991,7 +60885,7 @@
         <v>121</v>
       </c>
       <c r="BX275" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BY275" s="1">
         <v>0</v>
@@ -61009,7 +60903,7 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>129</v>
@@ -61026,10 +60920,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1229</v>
@@ -61044,7 +60938,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1229</v>
@@ -61053,13 +60947,13 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61110,7 +61004,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61146,19 +61040,19 @@
         <v>23</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BG276" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU276" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BV276" s="1" t="s">
         <v>121</v>
@@ -61179,16 +61073,16 @@
         <v>102</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CF276" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="CH276" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CI276" s="1" t="s">
         <v>129</v>
@@ -61202,10 +61096,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1229</v>
@@ -61220,7 +61114,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1229</v>
@@ -61229,13 +61123,13 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61265,7 +61159,7 @@
         <v>107</v>
       </c>
       <c r="AG277" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="AH277" s="1" t="s">
         <v>373</v>
@@ -61280,7 +61174,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61310,19 +61204,19 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>121</v>
@@ -61340,16 +61234,16 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="CE277" s="1" t="s">
         <v>312</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>129</v>
@@ -61363,10 +61257,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1229</v>
@@ -61381,7 +61275,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1229</v>
@@ -61390,13 +61284,13 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61480,19 +61374,19 @@
         <v>23</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>121</v>
@@ -61510,16 +61404,16 @@
         <v>102</v>
       </c>
       <c r="CD278" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="CE278" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="CF278" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="CH278" s="1" t="s">
         <v>3259</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="CF278" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="CH278" s="1" t="s">
-        <v>3262</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>129</v>
@@ -61533,10 +61427,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1229</v>
@@ -61551,7 +61445,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1229</v>
@@ -61560,13 +61454,13 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -61653,19 +61547,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -61683,16 +61577,16 @@
         <v>102</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3269</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3270</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3272</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -61706,10 +61600,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1229</v>
@@ -61724,7 +61618,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1229</v>
@@ -61733,13 +61627,13 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -61748,7 +61642,7 @@
         <v>102</v>
       </c>
       <c r="Q280" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="R280" s="1" t="s">
         <v>134</v>
@@ -61790,7 +61684,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -61823,19 +61717,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -61853,16 +61747,16 @@
         <v>102</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3280</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3281</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3282</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3283</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -61876,10 +61770,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1229</v>
@@ -61894,7 +61788,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1229</v>
@@ -61903,13 +61797,13 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -61963,7 +61857,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -61999,19 +61893,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -62038,10 +61932,10 @@
         <v>1470</v>
       </c>
       <c r="CF281" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CH281" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -62055,10 +61949,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1229</v>
@@ -62073,7 +61967,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1229</v>
@@ -62082,13 +61976,13 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62142,7 +62036,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62178,19 +62072,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>121</v>
@@ -62211,16 +62105,16 @@
         <v>102</v>
       </c>
       <c r="CD282" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="CF282" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="CH282" s="1" t="s">
         <v>3298</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="CF282" s="1" t="s">
-        <v>3300</v>
-      </c>
-      <c r="CH282" s="1" t="s">
-        <v>3301</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>129</v>
@@ -62234,10 +62128,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1229</v>
@@ -62252,7 +62146,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1229</v>
@@ -62261,13 +62155,13 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62321,7 +62215,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62357,19 +62251,19 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BG283" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU283" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BV283" s="1" t="s">
         <v>121</v>
@@ -62390,16 +62284,16 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="CF283" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="CH283" s="1" t="s">
         <v>3307</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="CF283" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="CH283" s="1" t="s">
-        <v>3310</v>
       </c>
       <c r="CI283" s="1" t="s">
         <v>129</v>
@@ -62413,10 +62307,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1229</v>
@@ -62431,7 +62325,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1229</v>
@@ -62440,13 +62334,13 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -62500,7 +62394,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62536,19 +62430,19 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BG284" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU284" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BV284" s="1" t="s">
         <v>121</v>
@@ -62569,16 +62463,16 @@
         <v>102</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CE284" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="CF284" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CH284" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="CI284" s="1" t="s">
         <v>129</v>
@@ -62588,6 +62482,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ284" xr:uid="{387BAA8F-B63A-4E84-BFDC-D0E3835B9713}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>